--- a/tables/table_general_admissions_2019_2021.xlsx
+++ b/tables/table_general_admissions_2019_2021.xlsx
@@ -205,10 +205,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -217,9 +217,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,13 +238,13 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -256,26 +256,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5622312</v>
+        <v>7669083</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4858330</v>
+        <v>6755553</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5353034</v>
+        <v>7189437</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-4.7894531644633</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>-6.25428098770088</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>-3.27450924051266</v>
+      </c>
       <c r="H2" s="3" t="n">
-        <v>-2.51900622250806</v>
+        <v>-3.32445223087505</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>-2.57780420799607</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>-2.46017275020856</v>
+        <v>-3.22454044939358</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,26 +285,25 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>443166</v>
+        <v>452208</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>529750</v>
+        <v>538188</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>693891</v>
+        <v>702538</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>56.5758654770447</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>55.3572692212433</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>25.0627851107555</v>
+      </c>
       <c r="H3" s="3" t="n">
-        <v>25.5552992897818</v>
+        <v>24.8293872602317</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>25.3190512496173</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>25.7919926982755</v>
+        <v>25.2966193533646</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,26 +314,25 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5179146</v>
+        <v>7216875</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4328580</v>
+        <v>6217365</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4659143</v>
+        <v>6486899</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-10.0403232502038</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>-10.1148488784966</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>-5.35078757963664</v>
+      </c>
       <c r="H4" s="3" t="n">
-        <v>-5.35964320029102</v>
+        <v>-5.40171656335717</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>-5.42002748407797</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>-5.2992203643494</v>
+        <v>-5.29983117722215</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,26 +343,25 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>2137618</v>
+        <v>4133201</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1797093</v>
+        <v>3652373</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1973898</v>
+        <v>3767336</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-7.65899239246676</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>-8.85185598280848</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>-4.64094032801387</v>
+      </c>
       <c r="H5" s="3" t="n">
-        <v>-4.07226653745715</v>
+        <v>-4.70830026528327</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>-4.16699236216439</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>-3.97744708131657</v>
+        <v>-4.57353277525264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,26 +372,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>95226</v>
+        <v>102905</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>109852</v>
+        <v>117038</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>168900</v>
+        <v>176370</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>77.3675256757608</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>71.3910888683737</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>32.5407951070158</v>
+      </c>
       <c r="H6" s="3" t="n">
-        <v>34.9739318671415</v>
+        <v>32.0263702388432</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>34.4332785332647</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>35.5167595586671</v>
+        <v>33.0572243697993</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,26 +401,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>2042392</v>
+        <v>4030296</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1687241</v>
+        <v>3535335</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1804998</v>
+        <v>3590966</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-11.6233318579391</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>-10.9006881876666</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>-5.73894993642492</v>
+      </c>
       <c r="H7" s="3" t="n">
-        <v>-6.2354325183736</v>
+        <v>-5.80672704613122</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>-6.33115549907924</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>-6.1396117155043</v>
+        <v>-5.67112405745457</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,26 +430,25 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>981032</v>
+        <v>1010395</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>850860</v>
+        <v>874689</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>972436</v>
+        <v>996639</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.876220143685425</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>-1.36144775063218</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>-0.713478646382337</v>
+      </c>
       <c r="H8" s="3" t="n">
-        <v>-0.458735496920049</v>
+        <v>-0.85377824830708</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>-0.601320396241545</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>-0.315946063156092</v>
+        <v>-0.572980509627385</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,26 +459,25 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>79418</v>
+        <v>80055</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>94225</v>
+        <v>94798</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>136836</v>
+        <v>137368</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>72.2984713792843</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>71.5920304790457</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>32.1680744891262</v>
+      </c>
       <c r="H9" s="3" t="n">
-        <v>32.4503532857293</v>
+        <v>31.5904945840354</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>31.8697518368072</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>33.0335110300703</v>
+        <v>32.7481895206928</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,26 +488,25 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>901614</v>
+        <v>930340</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>756635</v>
+        <v>779891</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>835600</v>
+        <v>859271</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-7.32175853524901</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>-7.63903519143539</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>-4.06505764993311</v>
+      </c>
       <c r="H10" s="3" t="n">
-        <v>-3.89381680265861</v>
+        <v>-4.20867527295324</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>-4.03984981512143</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>-3.7475615558549</v>
+        <v>-3.92122470447432</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,26 +517,25 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1047103</v>
+        <v>1060737</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>922748</v>
+        <v>934158</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1022158</v>
+        <v>1033925</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>-2.3822871293464</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>-2.52767651170837</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>-1.31910539884393</v>
+      </c>
       <c r="H11" s="3" t="n">
-        <v>-1.24282605509728</v>
+        <v>-1.45512757595543</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>-1.37978694955467</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>-1.10567495331798</v>
+        <v>-1.18289546936936</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,26 +546,25 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>109731</v>
+        <v>110178</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>131327</v>
+        <v>131747</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>164842</v>
+        <v>165242</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>50.2237289371281</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>49.9773094447167</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>22.6620764704427</v>
+      </c>
       <c r="H12" s="3" t="n">
-        <v>22.7631784381544</v>
+        <v>22.1967028251339</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>22.2966573481554</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>23.2314791510158</v>
+        <v>23.1292224436845</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,26 +575,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>937372</v>
+        <v>950559</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>791421</v>
+        <v>802411</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>857316</v>
+        <v>868683</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-8.54047272587617</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>-8.61345797578057</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>-4.57820376772015</v>
+      </c>
       <c r="H13" s="3" t="n">
-        <v>-4.53886019336393</v>
+        <v>-4.71964304357978</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>-4.68132476176576</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>-4.39618269551044</v>
+        <v>-4.43655453180794</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,26 +604,25 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1456559</v>
+        <v>1464750</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1287629</v>
+        <v>1294333</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1384542</v>
+        <v>1391537</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-4.94432426012266</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>-4.99832735961768</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>-2.61146229525667</v>
+      </c>
       <c r="H14" s="3" t="n">
-        <v>-2.58279292265582</v>
+        <v>-2.72616277238419</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>-2.69783029196218</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>-2.46761954819793</v>
+        <v>-2.49662656902386</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,26 +633,25 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>158791</v>
+        <v>159070</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>194346</v>
+        <v>194605</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>223313</v>
+        <v>223558</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>40.6332852617592</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>40.5406424844408</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>18.3373689865152</v>
+      </c>
       <c r="H15" s="3" t="n">
-        <v>18.3753144757788</v>
+        <v>17.9614298700046</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>17.9989898151775</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>18.7528393182663</v>
+        <v>18.7145062083681</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,26 +662,25 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1297768</v>
+        <v>1305680</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1093283</v>
+        <v>1099728</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1161229</v>
+        <v>1167979</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-10.5210638573304</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>-10.5463053734453</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>-5.61942825253697</v>
+      </c>
       <c r="H16" s="3" t="n">
-        <v>-5.60550956159122</v>
+        <v>-5.7393018067471</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>-5.72575571440454</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>-5.48511003563367</v>
+        <v>-5.49940225229924</v>
       </c>
     </row>
   </sheetData>

--- a/tables/table_general_admissions_2019_2021.xlsx
+++ b/tables/table_general_admissions_2019_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Analise</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t xml:space="preserve">admissoes_gerais_non_uti_70_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_uti_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_uti_elderly</t>
   </si>
 </sst>
 </file>
@@ -205,21 +223,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,13 +256,13 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -267,13 +285,14 @@
       <c r="F2" s="3" t="n">
         <v>-6.25428098770088</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="n">
         <v>-3.27450924051266</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="I2" s="3" t="n">
         <v>-3.32445223087505</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="J2" s="3" t="n">
         <v>-3.22454044939358</v>
       </c>
     </row>
@@ -296,13 +315,14 @@
       <c r="F3" s="3" t="n">
         <v>55.3572692212433</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="n">
         <v>25.0627851107555</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="3" t="n">
         <v>24.8293872602317</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="3" t="n">
         <v>25.2966193533646</v>
       </c>
     </row>
@@ -325,13 +345,14 @@
       <c r="F4" s="3" t="n">
         <v>-10.1148488784966</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="n">
         <v>-5.35078757963664</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="3" t="n">
         <v>-5.40171656335717</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="3" t="n">
         <v>-5.29983117722215</v>
       </c>
     </row>
@@ -354,13 +375,14 @@
       <c r="F5" s="3" t="n">
         <v>-8.85185598280848</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="n">
         <v>-4.64094032801387</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="I5" s="3" t="n">
         <v>-4.70830026528327</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="J5" s="3" t="n">
         <v>-4.57353277525264</v>
       </c>
     </row>
@@ -383,13 +405,14 @@
       <c r="F6" s="3" t="n">
         <v>71.3910888683737</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="n">
         <v>32.5407951070158</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="I6" s="3" t="n">
         <v>32.0263702388432</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="J6" s="3" t="n">
         <v>33.0572243697993</v>
       </c>
     </row>
@@ -412,13 +435,14 @@
       <c r="F7" s="3" t="n">
         <v>-10.9006881876666</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="n">
         <v>-5.73894993642492</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="I7" s="3" t="n">
         <v>-5.80672704613122</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="J7" s="3" t="n">
         <v>-5.67112405745457</v>
       </c>
     </row>
@@ -441,13 +465,14 @@
       <c r="F8" s="3" t="n">
         <v>-1.36144775063218</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="n">
         <v>-0.713478646382337</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="I8" s="3" t="n">
         <v>-0.85377824830708</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="J8" s="3" t="n">
         <v>-0.572980509627385</v>
       </c>
     </row>
@@ -470,13 +495,14 @@
       <c r="F9" s="3" t="n">
         <v>71.5920304790457</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="n">
         <v>32.1680744891262</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="I9" s="3" t="n">
         <v>31.5904945840354</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="J9" s="3" t="n">
         <v>32.7481895206928</v>
       </c>
     </row>
@@ -499,13 +525,14 @@
       <c r="F10" s="3" t="n">
         <v>-7.63903519143539</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="n">
         <v>-4.06505764993311</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="I10" s="3" t="n">
         <v>-4.20867527295324</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="J10" s="3" t="n">
         <v>-3.92122470447432</v>
       </c>
     </row>
@@ -528,13 +555,14 @@
       <c r="F11" s="3" t="n">
         <v>-2.52767651170837</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="n">
         <v>-1.31910539884393</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="I11" s="3" t="n">
         <v>-1.45512757595543</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="J11" s="3" t="n">
         <v>-1.18289546936936</v>
       </c>
     </row>
@@ -557,13 +585,14 @@
       <c r="F12" s="3" t="n">
         <v>49.9773094447167</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="n">
         <v>22.6620764704427</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="I12" s="3" t="n">
         <v>22.1967028251339</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="J12" s="3" t="n">
         <v>23.1292224436845</v>
       </c>
     </row>
@@ -586,13 +615,14 @@
       <c r="F13" s="3" t="n">
         <v>-8.61345797578057</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="n">
         <v>-4.57820376772015</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="I13" s="3" t="n">
         <v>-4.71964304357978</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="J13" s="3" t="n">
         <v>-4.43655453180794</v>
       </c>
     </row>
@@ -615,13 +645,14 @@
       <c r="F14" s="3" t="n">
         <v>-4.99832735961768</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="n">
         <v>-2.61146229525667</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="I14" s="3" t="n">
         <v>-2.72616277238419</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="J14" s="3" t="n">
         <v>-2.49662656902386</v>
       </c>
     </row>
@@ -644,13 +675,14 @@
       <c r="F15" s="3" t="n">
         <v>40.5406424844408</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="n">
         <v>18.3373689865152</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="I15" s="3" t="n">
         <v>17.9614298700046</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="J15" s="3" t="n">
         <v>18.7145062083681</v>
       </c>
     </row>
@@ -673,14 +705,195 @@
       <c r="F16" s="3" t="n">
         <v>-10.5463053734453</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="n">
         <v>-5.61942825253697</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="I16" s="3" t="n">
         <v>-5.7393018067471</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="J16" s="3" t="n">
         <v>-5.49940225229924</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>5143596</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>4527062</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>4763975</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>-7.38045911848442</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="n">
+        <v>-3.86908379352856</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>-3.92982532094831</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>-3.808303861545</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>182960</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>211836</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>313738</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>71.4790118058592</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="n">
+        <v>32.3763878656542</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>31.9920084301855</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>32.7618866685162</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4960636</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>4315226</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>4450237</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>-10.2889831061985</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="n">
+        <v>-5.42772146361673</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>-5.48902439280426</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>-5.3663787713318</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2525487</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2228491</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>2425462</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>-3.960622248303</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="n">
+        <v>-2.06828530773551</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>-2.15599037230442</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>-1.98050162641347</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>269248</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>326352</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>388800</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>44.4021868314714</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="n">
+        <v>20.1038987707989</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>19.8112374721649</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>20.3972749492516</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2256239</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1902139</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>2036662</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>-9.73199204516897</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="n">
+        <v>-5.18011746468455</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>-5.27158534413688</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>-5.08856126566094</v>
       </c>
     </row>
   </sheetData>
